--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_5_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_5_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.181888794610231e-06</v>
+        <v>0.0001849822643673615</v>
       </c>
       <c r="I2" t="n">
-        <v>1.181888794610231e-06</v>
+        <v>0.0001849822643673615</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>50.9152436260297</v>
+        <v>43.50145399750475</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[31.468999585824875, 70.36148766623452]</t>
+          <t>[20.937599059921254, 66.06530893508824]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.68241045611839e-06</v>
+        <v>0.0003349692141354499</v>
       </c>
       <c r="O2" t="n">
-        <v>3.68241045611839e-06</v>
+        <v>0.0003349692141354499</v>
       </c>
       <c r="P2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.389973926813503</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2264475824825016, 2.157289850212811]</t>
+          <t>[0.7484474990534249, 2.0315003545735806]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.407063964289136e-09</v>
+        <v>7.382293980140453e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>3.407063964289136e-09</v>
+        <v>7.382293980140453e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>53.03319064054047</v>
+        <v>55.32034777799592</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.11932987421261, 64.94705140686833]</t>
+          <t>[41.71347934511485, 68.92721621087699]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.417377326617952e-11</v>
+        <v>1.835231966396123e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.417377326617952e-11</v>
+        <v>1.835231966396123e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.80060060060087</v>
+        <v>18.90096096096124</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.9961561561564</v>
+        <v>16.42294294294318</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.60504504504534</v>
+        <v>21.37897897897929</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003630766713270783</v>
+        <v>7.981708160298417e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003630766713270783</v>
+        <v>7.981708160298417e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>35.42601857722055</v>
+        <v>51.04512941595416</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[10.683476839908899, 60.16856031453221]</t>
+          <t>[27.424683925940812, 74.6655749059675]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.006008347013356063</v>
+        <v>7.654695902425956e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006008347013356063</v>
+        <v>7.654695902425956e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.805079262422963</v>
+        <v>1.264184431174271</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9497106920761924, 2.6604478327697345]</t>
+          <t>[0.7484474990534249, 1.7799213632951165]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001061003656559478</v>
+        <v>1.134246284140161e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001061003656559478</v>
+        <v>1.134246284140161e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>57.58051922597588</v>
+        <v>65.87061381019328</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.356145188017095, 71.80489326393467]</t>
+          <t>[52.72941592392809, 79.01181169645847]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.065623228020286e-10</v>
+        <v>3.854694341498544e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.065623228020286e-10</v>
+        <v>3.854694341498544e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>17.36168168168195</v>
+        <v>19.38684684684713</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.04540540540562</v>
+        <v>17.39471471471498</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.67795795795828</v>
+        <v>21.37897897897929</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>6.918549066980972e-09</v>
+        <v>0.0007096866606679519</v>
       </c>
       <c r="I4" t="n">
-        <v>6.918549066980972e-09</v>
+        <v>0.0007096866606679519</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>63.55138492755628</v>
+        <v>54.25231014100876</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[44.70586961952564, 82.39690023558691]</t>
+          <t>[23.155823385063172, 85.34879689695434]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.074394966911086e-08</v>
+        <v>0.001018922596913052</v>
       </c>
       <c r="O4" t="n">
-        <v>2.074394966911086e-08</v>
+        <v>0.001018922596913052</v>
       </c>
       <c r="P4" t="n">
-        <v>1.50318447288881</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 1.8553950606786564]</t>
+          <t>[0.9119738433844251, 2.396289891927349]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.756461891020081e-11</v>
+        <v>4.931660825735484e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>4.756461891020081e-11</v>
+        <v>4.931660825735484e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>57.58306929827982</v>
+        <v>60.51143415225338</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.686976880865785, 69.47916171569386]</t>
+          <t>[41.72527473592186, 79.2975935685849]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.145084027598386e-12</v>
+        <v>5.883037257348178e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.145084027598386e-12</v>
+        <v>5.883037257348178e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>18.53213213213241</v>
+        <v>17.88060060060086</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.16660660660687</v>
+        <v>15.0138738738741</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.89765765765796</v>
+        <v>20.74732732732763</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001123446455616794</v>
+        <v>0.0003353455667134408</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001123446455616794</v>
+        <v>0.0003353455667134408</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>36.45097427777317</v>
+        <v>38.12085425142757</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[11.797888875817897, 61.104059679728444]</t>
+          <t>[14.636873590947168, 61.60483491190798]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.004661026892775588</v>
+        <v>0.002069894682896978</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004661026892775588</v>
+        <v>0.002069894682896978</v>
       </c>
       <c r="P5" t="n">
         <v>1.13839493553504</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 1.8302371615508113]</t>
+          <t>[0.4968685077749626, 1.7799213632951183]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001821699072615868</v>
+        <v>0.0008527989631494926</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001821699072615868</v>
+        <v>0.0008527989631494926</v>
       </c>
       <c r="T5" t="n">
-        <v>62.1347661929028</v>
+        <v>62.02874254539853</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.06080399891428, 75.20872838689132]</t>
+          <t>[49.615564927009544, 74.44192016378751]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.009281629966608e-12</v>
+        <v>4.249933738265099e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.009281629966608e-12</v>
+        <v>4.249933738265099e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>19.94642642642673</v>
+        <v>19.87273273273302</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.2641441441444</v>
+        <v>17.39471471471496</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.62870870870905</v>
+        <v>22.35075075075108</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002897728718467829</v>
+        <v>8.28225331294119e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002897728718467829</v>
+        <v>8.28225331294119e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>39.5328624907621</v>
+        <v>48.03467431622587</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[10.881083415867394, 68.1846415656568]</t>
+          <t>[21.185612471615087, 74.88373616083666]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.007927960884656082</v>
+        <v>0.0007815725383251149</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007927960884656082</v>
+        <v>0.0007815725383251149</v>
       </c>
       <c r="P6" t="n">
-        <v>1.251605481610348</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 2.0566582537014257]</t>
+          <t>[0.47171060864711656, 1.6038160694001942]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.003055540843400761</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003055540843400761</v>
+        <v>0.000598308194783792</v>
       </c>
       <c r="T6" t="n">
-        <v>58.87360147667496</v>
+        <v>65.09232339577181</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.38578182978601, 74.3614211235639]</t>
+          <t>[50.90694505664903, 79.2777017348946]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.096136514888713e-09</v>
+        <v>5.786038315136466e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.096136514888713e-09</v>
+        <v>5.786038315136466e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5075075075078</v>
+        <v>20.26144144144174</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.38630630630655</v>
+        <v>18.07495495495522</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.62870870870905</v>
+        <v>22.44792792792826</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02749782080538388</v>
+        <v>0.03257481069870871</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02749782080538388</v>
+        <v>0.03257481069870871</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>29.66569631136308</v>
+        <v>26.56957712653322</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.7340695343835506, 58.597323088342606]</t>
+          <t>[2.1267271745418768, 51.01242707852456]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.04469256533165544</v>
+        <v>0.03379875388235121</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04469256533165544</v>
+        <v>0.03379875388235121</v>
       </c>
       <c r="P7" t="n">
-        <v>1.088079137279347</v>
+        <v>1.389973926813503</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.2830263651882703, 2.459184639746965]</t>
+          <t>[0.09434212172942491, 2.6856057318975806]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1169644564387335</v>
+        <v>0.03607495678534711</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1169644564387335</v>
+        <v>0.03607495678534711</v>
       </c>
       <c r="T7" t="n">
-        <v>52.66603724601966</v>
+        <v>62.87582411459269</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[37.49271266431611, 67.8393618277232]</t>
+          <t>[48.90931291620633, 76.84233531297905]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.051230413828819e-08</v>
+        <v>1.018363171567671e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>1.051230413828819e-08</v>
+        <v>1.018363171567671e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>20.14150150150181</v>
+        <v>18.90096096096124</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.82570570570593</v>
+        <v>13.89633633633654</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.45729729729769</v>
+        <v>23.90558558558593</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02449682641702866</v>
+        <v>0.001730242037377261</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02449682641702866</v>
+        <v>0.001730242037377261</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>25.57842154768097</v>
+        <v>46.31324549148675</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.7937038597235286, 49.36313923563841]</t>
+          <t>[13.27052407441218, 79.35596690856131]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.03564835754659623</v>
+        <v>0.007061244666377808</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03564835754659623</v>
+        <v>0.007061244666377808</v>
       </c>
       <c r="P8" t="n">
-        <v>1.239026532046425</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.006289474781961069, 2.4717635893108882]</t>
+          <t>[0.37107901213573147, 1.8553950606786573]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.04889086687299993</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04889086687299993</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T8" t="n">
-        <v>46.87278216912388</v>
+        <v>63.08987260949216</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[34.00668750195396, 59.7388768362938]</t>
+          <t>[45.85187314979598, 80.32787206918834]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.225741229684331e-09</v>
+        <v>2.875338855901077e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.225741229684331e-09</v>
+        <v>2.875338855901077e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>19.55627627627657</v>
+        <v>19.9699099099102</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.77693693693716</v>
+        <v>17.10318318318343</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.33561561561599</v>
+        <v>22.83663663663697</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006801048573470414</v>
+        <v>7.11486573693465e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006801048573470414</v>
+        <v>7.11486573693465e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>41.84159741222781</v>
+        <v>39.1377044587591</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[14.466355193664896, 69.21683963079072]</t>
+          <t>[16.904014288590574, 61.37139462892763]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.003538600476215903</v>
+        <v>0.0009283818351559781</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003538600476215903</v>
+        <v>0.0009283818351559781</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9371317425122703</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.3207632138800385, 1.553500271144502]</t>
+          <t>[0.16981581911296129, 1.2264475824825025]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.003700392049875489</v>
+        <v>0.01074744229979863</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003700392049875489</v>
+        <v>0.01074744229979863</v>
       </c>
       <c r="T9" t="n">
-        <v>65.09231530871239</v>
+        <v>57.17506106272255</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.73026473027548, 79.4543658871493]</t>
+          <t>[45.775299040313456, 68.57482308513164]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.353762126489528e-12</v>
+        <v>3.785860513971784e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>8.353762126489528e-12</v>
+        <v>3.785860513971784e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>20.72672672672704</v>
+        <v>21.57333333333365</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.33705705705733</v>
+        <v>19.5326126126129</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.11639639639675</v>
+        <v>23.6140540540544</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008633542048962717</v>
+        <v>7.285494214925858e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008633542048962717</v>
+        <v>7.285494214925858e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>33.4531305940521</v>
+        <v>43.19825732327826</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[6.136189982433663, 60.77007120567053]</t>
+          <t>[19.95415531872399, 66.44235932783253]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01751699246235305</v>
+        <v>0.0005134750518480669</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01751699246235305</v>
+        <v>0.0005134750518480669</v>
       </c>
       <c r="P10" t="n">
-        <v>1.088079137279347</v>
+        <v>1.012605439895809</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 2.018921405009656]</t>
+          <t>[0.4465527095192696, 1.578658170272349]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0229808198198731</v>
+        <v>0.0007823918673950381</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0229808198198731</v>
+        <v>0.0007823918673950381</v>
       </c>
       <c r="T10" t="n">
-        <v>56.26195668456652</v>
+        <v>68.77820367888627</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.57528279354409, 70.94863057558895]</t>
+          <t>[56.131890207766205, 81.42451715000634]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.967331321940719e-10</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>8.967331321940719e-10</v>
+        <v>2.775557561562891e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>20.14150150150181</v>
+        <v>20.35861861861892</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.53261261261287</v>
+        <v>18.1721321321324</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.75039039039075</v>
+        <v>22.54510510510543</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.15000000000049</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003132412532300677</v>
+        <v>0.01064176631750891</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003132412532300677</v>
+        <v>0.01064176631750891</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>41.9223878799791</v>
+        <v>27.80649035676875</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[15.97216258209086, 67.87261317786734]</t>
+          <t>[3.5700786177541914, 52.042902095783305]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.00216427014646059</v>
+        <v>0.02548363465949466</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00216427014646059</v>
+        <v>0.02548363465949466</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9371317425122712</v>
+        <v>0.8490790955648082</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.3333421634439624, 1.54092132158058]</t>
+          <t>[0.10692107129334616, 1.5912371198362703]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.003100548735260222</v>
+        <v>0.0258784006071322</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003100548735260222</v>
+        <v>0.0258784006071322</v>
       </c>
       <c r="T11" t="n">
-        <v>58.49880385723758</v>
+        <v>59.01792029498206</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.978686988062535, 72.01892072641262]</t>
+          <t>[46.61699298534387, 71.41884760462025]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.219113864361134e-11</v>
+        <v>1.926014903119722e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>3.219113864361134e-11</v>
+        <v>1.926014903119722e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>21.39889889889931</v>
+        <v>21.78594594594638</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.98208208208245</v>
+        <v>18.81055055055093</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.81571571571618</v>
+        <v>24.76134134134183</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.15000000000049</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005216016649953192</v>
+        <v>0.001419593382682383</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005216016649953192</v>
+        <v>0.001419593382682383</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>31.5553348682786</v>
+        <v>31.2950817547877</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[6.934014456547295, 56.176655280009896]</t>
+          <t>[9.926191420735464, 52.66397208883994]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.01317146406918024</v>
+        <v>0.005032465720478552</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01317146406918024</v>
+        <v>0.005032465720478552</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8490790955648091</v>
+        <v>0.4465527095192696</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.15723686954903915, 1.540921321580579]</t>
+          <t>[-0.24528951649650121, 1.1383949355350405]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.0172897123622664</v>
+        <v>0.2002164323681741</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0172897123622664</v>
+        <v>0.2002164323681741</v>
       </c>
       <c r="T12" t="n">
-        <v>61.72206075709997</v>
+        <v>44.10907916872389</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[48.75801697870144, 74.68610453549849]</t>
+          <t>[32.94684412793856, 55.27131420950923]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.903144308812443e-12</v>
+        <v>3.954976346420835e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.903144308812443e-12</v>
+        <v>3.954976346420835e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>21.75135135135178</v>
+        <v>23.39971971972018</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.98208208208245</v>
+        <v>20.62604604604645</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.5206206206211</v>
+        <v>26.17339339339392</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.15000000000049</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001482571741457939</v>
+        <v>0.03413443372632308</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001482571741457939</v>
+        <v>0.03413443372632308</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>53.51363497160151</v>
+        <v>25.73012277271389</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[25.576232664585007, 81.45103727861802]</t>
+          <t>[2.214953755106393, 49.245291790321396]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.0003617746409896316</v>
+        <v>0.03269564613640341</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0003617746409896316</v>
+        <v>0.03269564613640341</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2075526678047313</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.39623691126357663, 0.8113422468730391]</t>
+          <t>[-1.0817896624973864, 1.396263401595463]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.4922761978023704</v>
+        <v>0.7994268487073934</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4922761978023704</v>
+        <v>0.7994268487073934</v>
       </c>
       <c r="T13" t="n">
-        <v>59.05714088777442</v>
+        <v>49.93646521722255</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.051645501195395, 75.06263627435344]</t>
+          <t>[36.70760822443577, 63.16532221000932]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.344158644973504e-09</v>
+        <v>1.312556952015598e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.344158644973504e-09</v>
+        <v>1.312556952015598e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>24.31921921921969</v>
+        <v>24.55961961962011</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.90240240240283</v>
+        <v>19.59222222222261</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.73603603603656</v>
+        <v>29.5270170170176</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.15000000000049</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001223377106895684</v>
+        <v>5.107353214350852e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001223377106895684</v>
+        <v>5.107353214350852e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>38.69938786880765</v>
+        <v>44.30419059300128</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[13.620976797620344, 63.77779893999495]</t>
+          <t>[26.206485728577277, 62.40189545742528]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.00325999874827998</v>
+        <v>1.158495785413827e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00325999874827998</v>
+        <v>1.158495785413827e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.3018947895341544</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.0063159651138474, 0.4025263860455386]</t>
+          <t>[-0.32076321388003937, 0.6352369529781159]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.3926119510892887</v>
+        <v>0.5110083044867197</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3926119510892887</v>
+        <v>0.5110083044867197</v>
       </c>
       <c r="T14" t="n">
-        <v>60.07161726948672</v>
+        <v>56.56215756178308</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[46.29615678558196, 73.84707775339149]</t>
+          <t>[45.75983740297929, 67.36447772058688]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.572186907912055e-11</v>
+        <v>9.570122472268849e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>2.572186907912055e-11</v>
+        <v>9.570122472268849e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>1.208408408408435</v>
+        <v>24.55961961962011</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.611211211211239</v>
+        <v>22.64326326326371</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.028028028028109</v>
+        <v>26.4759759759765</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.15000000000049</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.315689956446711e-05</v>
+        <v>0.03457405404445346</v>
       </c>
       <c r="I15" t="n">
-        <v>4.315689956446711e-05</v>
+        <v>0.03457405404445346</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>49.03067942096263</v>
+        <v>27.68173892906789</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[26.949100064122618, 71.11225877780265]</t>
+          <t>[2.140039221810248, 53.223438636325525]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.208429651637481e-05</v>
+        <v>0.03430406946248343</v>
       </c>
       <c r="O15" t="n">
-        <v>5.208429651637481e-05</v>
+        <v>0.03430406946248343</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.006289474781961069</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.5471843060306538, 0.5346053564667317]</t>
+          <t>[-1.6415529180919632, 1.0880791372793466]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.9814189505343431</v>
+        <v>0.6849245193584523</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9814189505343431</v>
+        <v>0.6849245193584523</v>
       </c>
       <c r="T15" t="n">
-        <v>64.41563542102044</v>
+        <v>65.48033372182779</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[50.847314972424556, 77.98395586961632]</t>
+          <t>[51.04793454479656, 79.91273289885902]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.075450922234268e-12</v>
+        <v>8.096856518591267e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>2.075450922234268e-12</v>
+        <v>8.096856518591267e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02517517517517476</v>
+        <v>1.109469469469495</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.139889889889931</v>
+        <v>-4.362232232232311</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.190240240240281</v>
+        <v>6.581171171171301</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.15000000000049</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>6.486632624369548e-07</v>
+        <v>0.0001690884127319991</v>
       </c>
       <c r="I16" t="n">
-        <v>6.486632624369548e-07</v>
+        <v>0.0001690884127319991</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>55.33938379827052</v>
+        <v>45.681286267332</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[32.593019391114964, 78.08574820542607]</t>
+          <t>[17.802312796174732, 73.56025973848926]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.28202832370139e-05</v>
+        <v>0.00189567166821436</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28202832370139e-05</v>
+        <v>0.00189567166821436</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.5031579825569237</v>
+        <v>-0.7421580242714629</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, -0.08805264694746118]</t>
+          <t>[-1.3082107546480017, -0.17610529389492413]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.01862964901745623</v>
+        <v>0.011333022741564</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01862964901745623</v>
+        <v>0.011333022741564</v>
       </c>
       <c r="T16" t="n">
-        <v>62.12146505253934</v>
+        <v>55.29083139837772</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[49.66974441265088, 74.57318569242778]</t>
+          <t>[41.03700880066353, 69.54465399609191]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.46975789714088e-13</v>
+        <v>6.465250557141644e-10</v>
       </c>
       <c r="W16" t="n">
-        <v>4.46975789714088e-13</v>
+        <v>6.465250557141644e-10</v>
       </c>
       <c r="X16" t="n">
-        <v>2.014014014014052</v>
+        <v>2.975395395395452</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3524524524524562</v>
+        <v>0.70602602602604</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.675575575575647</v>
+        <v>5.244764764764865</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_5_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_5_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001849822643673615</v>
+        <v>0.0006939338166465081</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001849822643673615</v>
+        <v>0.0006939338166465081</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>43.50145399750475</v>
+        <v>40.57781463590649</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[20.937599059921254, 66.06530893508824]</t>
+          <t>[17.08699204356769, 64.0686372282453]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0003349692141354499</v>
+        <v>0.001128562993696569</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003349692141354499</v>
+        <v>0.001128562993696569</v>
       </c>
       <c r="P2" t="n">
-        <v>1.389973926813503</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.7484474990534249, 2.0315003545735806]</t>
+          <t>[0.7610264486173479, 2.220184598032426]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.382293980140453e-05</v>
+        <v>0.0001627784622351136</v>
       </c>
       <c r="S2" t="n">
-        <v>7.382293980140453e-05</v>
+        <v>0.0001627784622351136</v>
       </c>
       <c r="T2" t="n">
-        <v>55.32034777799592</v>
+        <v>62.28296710009729</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[41.71347934511485, 68.92721621087699]</t>
+          <t>[48.25872953739596, 76.30720466279863]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.835231966396123e-10</v>
+        <v>1.516342607033039e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.835231966396123e-10</v>
+        <v>1.516342607033039e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.90096096096124</v>
+        <v>18.53513513513541</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.42294294294318</v>
+        <v>15.71351351351375</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.37897897897929</v>
+        <v>21.35675675675707</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>7.981708160298417e-06</v>
+        <v>0.008423268563692243</v>
       </c>
       <c r="I3" t="n">
-        <v>7.981708160298417e-06</v>
+        <v>0.008423268563692243</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.04512941595416</v>
+        <v>30.10685854923569</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[27.424683925940812, 74.6655749059675]</t>
+          <t>[6.9153593519817065, 53.29835774648968]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.654695902425956e-05</v>
+        <v>0.01210793021563528</v>
       </c>
       <c r="O3" t="n">
-        <v>7.654695902425956e-05</v>
+        <v>0.01210793021563528</v>
       </c>
       <c r="P3" t="n">
-        <v>1.264184431174271</v>
+        <v>1.968605606753965</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.7484474990534249, 1.7799213632951165]</t>
+          <t>[1.0251843894597332, 2.912026824048196]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.134246284140161e-05</v>
+        <v>0.0001234017828264378</v>
       </c>
       <c r="S3" t="n">
-        <v>1.134246284140161e-05</v>
+        <v>0.0001234017828264378</v>
       </c>
       <c r="T3" t="n">
-        <v>65.87061381019328</v>
+        <v>55.32721093021559</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.72941592392809, 79.01181169645847]</t>
+          <t>[42.11465276244333, 68.53976909798784]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.854694341498544e-13</v>
+        <v>8.119482863833127e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>3.854694341498544e-13</v>
+        <v>8.119482863833127e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>19.38684684684713</v>
+        <v>16.68648648648673</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.39471471471498</v>
+        <v>13.03783783783803</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.37897897897929</v>
+        <v>20.33513513513543</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007096866606679519</v>
+        <v>5.491621610120845e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007096866606679519</v>
+        <v>5.491621610120845e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>54.25231014100876</v>
+        <v>52.48960051552992</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[23.155823385063172, 85.34879689695434]</t>
+          <t>[26.90391165643325, 78.07528937462659]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001018922596913052</v>
+        <v>0.0001543209376699828</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001018922596913052</v>
+        <v>0.0001543209376699828</v>
       </c>
       <c r="P4" t="n">
-        <v>1.654131867655887</v>
+        <v>1.012605439895809</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9119738433844251, 2.396289891927349]</t>
+          <t>[0.5346053564667317, 1.490605523324887]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.931660825735484e-05</v>
+        <v>0.000100714741209984</v>
       </c>
       <c r="S4" t="n">
-        <v>4.931660825735484e-05</v>
+        <v>0.000100714741209984</v>
       </c>
       <c r="T4" t="n">
-        <v>60.51143415225338</v>
+        <v>59.09309039913156</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.72527473592186, 79.2975935685849]</t>
+          <t>[45.88087326425707, 72.30530753400606]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.883037257348178e-08</v>
+        <v>1.233368962516579e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>5.883037257348178e-08</v>
+        <v>1.233368962516579e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>17.88060060060086</v>
+        <v>20.38378378378409</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0138738738741</v>
+        <v>18.53513513513541</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.74732732732763</v>
+        <v>22.23243243243276</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003353455667134408</v>
+        <v>7.221004677060439e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003353455667134408</v>
+        <v>7.221004677060439e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.12085425142757</v>
+        <v>41.76555696273096</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[14.636873590947168, 61.60483491190798]</t>
+          <t>[19.718145399175903, 63.81296852628602]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002069894682896978</v>
+        <v>0.0004121133004628685</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002069894682896978</v>
+        <v>0.0004121133004628685</v>
       </c>
       <c r="P5" t="n">
-        <v>1.13839493553504</v>
+        <v>1.289342330302118</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.4968685077749626, 1.7799213632951183]</t>
+          <t>[0.6855527512338089, 1.8931319093704264]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0008527989631494926</v>
+        <v>9.029959928841258e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0008527989631494926</v>
+        <v>9.029959928841258e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>62.02874254539853</v>
+        <v>50.23656130244589</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.615564927009544, 74.44192016378751]</t>
+          <t>[37.98836273861856, 62.48475986627322]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.249933738265099e-13</v>
+        <v>1.442153063635487e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>4.249933738265099e-13</v>
+        <v>1.442153063635487e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>19.87273273273302</v>
+        <v>19.3135135135138</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.39471471471496</v>
+        <v>16.97837837837863</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.35075075075108</v>
+        <v>21.64864864864897</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.28225331294119e-05</v>
+        <v>0.3478452090936466</v>
       </c>
       <c r="I6" t="n">
-        <v>8.28225331294119e-05</v>
+        <v>0.3478452090936466</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48.03467431622587</v>
+        <v>16.74942246813233</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.185612471615087, 74.88373616083666]</t>
+          <t>[-13.622681233697605, 47.12152616996226]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0007815725383251149</v>
+        <v>0.2725863327048172</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0007815725383251149</v>
+        <v>0.2725863327048172</v>
       </c>
       <c r="P6" t="n">
-        <v>1.037763339023655</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 1.6038160694001942]</t>
+          <t>[-1.7421845146033483, 4.446658670846814]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.000598308194783792</v>
+        <v>0.3834561689771367</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000598308194783792</v>
+        <v>0.3834561689771367</v>
       </c>
       <c r="T6" t="n">
-        <v>65.09232339577181</v>
+        <v>57.92000748144622</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.90694505664903, 79.2777017348946]</t>
+          <t>[41.63022559822507, 74.20978936466737]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.786038315136466e-12</v>
+        <v>5.876847897212656e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>5.786038315136466e-12</v>
+        <v>5.876847897212656e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>20.26144144144174</v>
+        <v>19.07027027027056</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.07495495495522</v>
+        <v>7.102702702702812</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.44792792792826</v>
+        <v>31.0378378378383</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03257481069870871</v>
+        <v>9.404654594913353e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03257481069870871</v>
+        <v>9.404654594913353e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>26.56957712653322</v>
+        <v>32.60670521513153</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[2.1267271745418768, 51.01242707852456]</t>
+          <t>[13.938080164376544, 51.275330265886524]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03379875388235121</v>
+        <v>0.001007131517980042</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03379875388235121</v>
+        <v>0.001007131517980042</v>
       </c>
       <c r="P7" t="n">
-        <v>1.389973926813503</v>
+        <v>0.7484474990534249</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.09434212172942491, 2.6856057318975806]</t>
+          <t>[0.20755266780473214, 1.2893423303021176]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.03607495678534711</v>
+        <v>0.00776426064133684</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03607495678534711</v>
+        <v>0.00776426064133684</v>
       </c>
       <c r="T7" t="n">
-        <v>62.87582411459269</v>
+        <v>45.43154250980982</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.90931291620633, 76.84233531297905]</t>
+          <t>[35.76239470048743, 55.100690319132205]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.018363171567671e-11</v>
+        <v>2.842170943040401e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.018363171567671e-11</v>
+        <v>2.842170943040401e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>18.90096096096124</v>
+        <v>21.40540540540572</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.89633633633654</v>
+        <v>19.3135135135138</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.90558558558593</v>
+        <v>23.49729729729764</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001730242037377261</v>
+        <v>0.0004942809164465434</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001730242037377261</v>
+        <v>0.0004942809164465434</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>46.31324549148675</v>
+        <v>44.04532430878756</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[13.27052407441218, 79.35596690856131]</t>
+          <t>[20.835427621093785, 67.25522099648133]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.007061244666377808</v>
+        <v>0.0004037202894136005</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007061244666377808</v>
+        <v>0.0004037202894136005</v>
       </c>
       <c r="P8" t="n">
-        <v>1.113237036407194</v>
+        <v>1.553500271144502</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 1.8553950606786573]</t>
+          <t>[0.81134224687304, 2.295658295415964]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.004142907235937576</v>
+        <v>0.0001183450053414692</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004142907235937576</v>
+        <v>0.0001183450053414692</v>
       </c>
       <c r="T8" t="n">
-        <v>63.08987260949216</v>
+        <v>56.89997091999642</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.85187314979598, 80.32787206918834]</t>
+          <t>[42.08227856427173, 71.71766327572111]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.875338855901077e-09</v>
+        <v>8.424894115677262e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>2.875338855901077e-09</v>
+        <v>8.424894115677262e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>19.9699099099102</v>
+        <v>18.29189189189216</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.10318318318343</v>
+        <v>15.42162162162185</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.83663663663697</v>
+        <v>21.16216216216247</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.11486573693465e-05</v>
+        <v>0.04999820659657284</v>
       </c>
       <c r="I9" t="n">
-        <v>7.11486573693465e-05</v>
+        <v>0.04999820659657284</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>39.1377044587591</v>
+        <v>25.4901518441869</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[16.904014288590574, 61.37139462892763]</t>
+          <t>[-2.1960298185480767, 53.176333506921885]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0009283818351559781</v>
+        <v>0.0702498266385525</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0009283818351559781</v>
+        <v>0.0702498266385525</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6981317007977319</v>
+        <v>0.9497106920761942</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.16981581911296129, 1.2264475824825025]</t>
+          <t>[-1.0251843894597323, 2.9246057736121207]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.01074744229979863</v>
+        <v>0.3379391022154068</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01074744229979863</v>
+        <v>0.3379391022154068</v>
       </c>
       <c r="T9" t="n">
-        <v>57.17506106272255</v>
+        <v>55.67012830477602</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.775299040313456, 68.57482308513164]</t>
+          <t>[41.32427588193737, 70.01598072761468]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.785860513971784e-13</v>
+        <v>6.397442575689638e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>3.785860513971784e-13</v>
+        <v>6.397442575689638e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>21.57333333333365</v>
+        <v>20.62702702702733</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.5326126126129</v>
+        <v>12.98918918918938</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.6140540540544</v>
+        <v>28.26486486486528</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.285494214925858e-05</v>
+        <v>0.001421689321846054</v>
       </c>
       <c r="I10" t="n">
-        <v>7.285494214925858e-05</v>
+        <v>0.001421689321846054</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>43.19825732327826</v>
+        <v>39.32501017479078</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[19.95415531872399, 66.44235932783253]</t>
+          <t>[12.327607758418594, 66.32241259116296]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0005134750518480669</v>
+        <v>0.005253269540481664</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005134750518480669</v>
+        <v>0.005253269540481664</v>
       </c>
       <c r="P10" t="n">
-        <v>1.012605439895809</v>
+        <v>0.7736053981812709</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.4465527095192696, 1.578658170272349]</t>
+          <t>[0.14465791998511612, 1.4025528763774258]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0007823918673950381</v>
+        <v>0.01705801254947259</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0007823918673950381</v>
+        <v>0.01705801254947259</v>
       </c>
       <c r="T10" t="n">
-        <v>68.77820367888627</v>
+        <v>57.28163539315727</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[56.131890207766205, 81.42451715000634]</t>
+          <t>[42.96022107411463, 71.60304971219992]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.775557561562891e-14</v>
+        <v>2.859130709964575e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>2.775557561562891e-14</v>
+        <v>2.859130709964575e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>20.35861861861892</v>
+        <v>21.30810810810842</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.1721321321324</v>
+        <v>18.87567567567595</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.54510510510543</v>
+        <v>23.74054054054089</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.1900000000005</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01064176631750891</v>
+        <v>0.0003220301981925466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01064176631750891</v>
+        <v>0.0003220301981925466</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>27.80649035676875</v>
+        <v>41.93469094323375</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[3.5700786177541914, 52.042902095783305]</t>
+          <t>[17.426775797914317, 66.44260608855318]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.02548363465949466</v>
+        <v>0.001242591025170325</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02548363465949466</v>
+        <v>0.001242591025170325</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8490790955648082</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.10692107129334616, 1.5912371198362703]</t>
+          <t>[0.5471843060306556, 1.8553950606786556]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0258784006071322</v>
+        <v>0.0005867809837654114</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0258784006071322</v>
+        <v>0.0005867809837654114</v>
       </c>
       <c r="T11" t="n">
-        <v>59.01792029498206</v>
+        <v>57.08363135181096</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[46.61699298534387, 71.41884760462025]</t>
+          <t>[43.345463422604496, 70.82179928101743]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.926014903119722e-12</v>
+        <v>1.007713912315467e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>1.926014903119722e-12</v>
+        <v>1.007713912315467e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>21.78594594594638</v>
+        <v>20.35771771771812</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.81055055055093</v>
+        <v>17.73741741741777</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.76134134134183</v>
+        <v>22.97801801801846</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.1900000000005</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001419593382682383</v>
+        <v>0.0006411205478503712</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001419593382682383</v>
+        <v>0.0006411205478503712</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>31.2950817547877</v>
+        <v>42.00107947861883</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[9.926191420735464, 52.66397208883994]</t>
+          <t>[17.894479269687537, 66.10767968755013]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.005032465720478552</v>
+        <v>0.001033159875459155</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005032465720478552</v>
+        <v>0.001033159875459155</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4465527095192696</v>
+        <v>0.1446579199851161</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.24528951649650121, 1.1383949355350405]</t>
+          <t>[-0.5471843060306547, 0.836500146000887]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2002164323681741</v>
+        <v>0.6756643468675123</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2002164323681741</v>
+        <v>0.6756643468675123</v>
       </c>
       <c r="T12" t="n">
-        <v>44.10907916872389</v>
+        <v>55.47576400909224</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[32.94684412793856, 55.27131420950923]</t>
+          <t>[41.4855338937767, 69.46599412440779]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.954976346420835e-10</v>
+        <v>3.605786780269682e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>3.954976346420835e-10</v>
+        <v>3.605786780269682e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>23.39971971972018</v>
+        <v>24.59051051051099</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.62604604604645</v>
+        <v>21.81903903903946</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.17339339339392</v>
+        <v>27.36198198198252</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.1900000000005</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03413443372632308</v>
+        <v>0.01099290914235429</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03413443372632308</v>
+        <v>0.01099290914235429</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>25.73012277271389</v>
+        <v>34.19481103053074</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[2.214953755106393, 49.245291790321396]</t>
+          <t>[8.894093945191528, 59.495528115869945]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.03269564613640341</v>
+        <v>0.009193986991429259</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03269564613640341</v>
+        <v>0.009193986991429259</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1572368695490383</v>
+        <v>-0.006289474781961957</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, 1.396263401595463]</t>
+          <t>[-1.0251843894597332, 1.0126054398958093]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.7994268487073934</v>
+        <v>0.9901353241115212</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7994268487073934</v>
+        <v>0.9901353241115212</v>
       </c>
       <c r="T13" t="n">
-        <v>49.93646521722255</v>
+        <v>55.89705922009563</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[36.70760822443577, 63.16532221000932]</t>
+          <t>[40.8407876117482, 70.95333082844306]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.312556952015598e-09</v>
+        <v>2.006937060983205e-09</v>
       </c>
       <c r="W13" t="n">
-        <v>1.312556952015598e-09</v>
+        <v>2.006937060983205e-09</v>
       </c>
       <c r="X13" t="n">
-        <v>24.55961961962011</v>
+        <v>0.02519519519519875</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.59222222222261</v>
+        <v>-4.056426426426506</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.5270170170176</v>
+        <v>4.106816816816903</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.1900000000005</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.107353214350852e-06</v>
+        <v>2.556408293463708e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>5.107353214350852e-06</v>
+        <v>2.556408293463708e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>44.30419059300128</v>
+        <v>45.67725707008202</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[26.206485728577277, 62.40189545742528]</t>
+          <t>[26.239229393701166, 65.11528474646288]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.158495785413827e-05</v>
+        <v>2.225914404463403e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.158495785413827e-05</v>
+        <v>2.225914404463403e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1572368695490383</v>
+        <v>0.03144737390980801</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.32076321388003937, 0.6352369529781159]</t>
+          <t>[-0.47171060864711567, 0.5346053564667317]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5110083044867197</v>
+        <v>0.9003864981054428</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5110083044867197</v>
+        <v>0.9003864981054428</v>
       </c>
       <c r="T14" t="n">
-        <v>56.56215756178308</v>
+        <v>56.81225135739505</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[45.75983740297929, 67.36447772058688]</t>
+          <t>[44.588532332919264, 69.03597038187084]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>9.570122472268849e-14</v>
+        <v>3.947508986357207e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>9.570122472268849e-14</v>
+        <v>3.947508986357207e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>24.55961961962011</v>
+        <v>25.04402402402452</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.64326326326371</v>
+        <v>23.02840840840886</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.4759759759765</v>
+        <v>27.05963963964017</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>25.1900000000005</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03457405404445346</v>
+        <v>3.48231431579471e-07</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03457405404445346</v>
+        <v>3.48231431579471e-07</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>27.68173892906789</v>
+        <v>59.49046142391654</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[2.140039221810248, 53.223438636325525]</t>
+          <t>[37.298072257019825, 81.68285059081326]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.03430406946248343</v>
+        <v>2.410154323895242e-06</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03430406946248343</v>
+        <v>2.410154323895242e-06</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2767368904063083</v>
+        <v>-0.2390000417145384</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.6415529180919632, 1.0880791372793466]</t>
+          <t>[-0.6415264277600778, 0.1635263443310011]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.6849245193584523</v>
+        <v>0.2380093798038176</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6849245193584523</v>
+        <v>0.2380093798038176</v>
       </c>
       <c r="T15" t="n">
-        <v>65.48033372182779</v>
+        <v>60.32076288528472</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[51.04793454479656, 79.91273289885902]</t>
+          <t>[47.46488256502025, 73.1766432055492]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>8.096856518591267e-12</v>
+        <v>2.964295475749168e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>8.096856518591267e-12</v>
+        <v>2.964295475749168e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>1.109469469469495</v>
+        <v>0.9574174174174352</v>
       </c>
       <c r="Y15" t="n">
-        <v>-4.362232232232311</v>
+        <v>-0.6550750750750907</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.581171171171301</v>
+        <v>2.569909909909961</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25.1900000000005</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001690884127319991</v>
+        <v>2.093125288649134e-07</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001690884127319991</v>
+        <v>2.093125288649134e-07</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>45.681286267332</v>
+        <v>56.43913786301914</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[17.802312796174732, 73.56025973848926]</t>
+          <t>[32.78895791627718, 80.0893178097611]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.00189567166821436</v>
+        <v>1.747126320084114e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00189567166821436</v>
+        <v>1.747126320084114e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.7421580242714629</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-1.3082107546480017, -0.17610529389492413]</t>
+          <t>[-1.0314738642416934, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.011333022741564</v>
+        <v>0.001824787486937929</v>
       </c>
       <c r="S16" t="n">
-        <v>0.011333022741564</v>
+        <v>0.001824787486937929</v>
       </c>
       <c r="T16" t="n">
-        <v>55.29083139837772</v>
+        <v>60.00762855862429</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[41.03700880066353, 69.54465399609191]</t>
+          <t>[47.86103312802004, 72.15422398922854]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>6.465250557141644e-10</v>
+        <v>6.077360836798107e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>6.465250557141644e-10</v>
+        <v>6.077360836798107e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>2.975395395395452</v>
+        <v>2.56990990990996</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.70602602602604</v>
+        <v>1.007807807807829</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.244764764764865</v>
+        <v>4.132012012012091</v>
       </c>
     </row>
   </sheetData>
